--- a/FileSystem/Storage/Stat.xlsx
+++ b/FileSystem/Storage/Stat.xlsx
@@ -16,39 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>rgregre</t>
-  </si>
-  <si>
-    <t>rgerger</t>
-  </si>
-  <si>
-    <t>rthrth</t>
-  </si>
-  <si>
-    <t>juuu</t>
-  </si>
-  <si>
-    <t>парапрара</t>
-  </si>
-  <si>
-    <t>gffghgfhf</t>
-  </si>
-  <si>
-    <t>hgjghjhgghjghjhgghjgf</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -98,9 +70,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +110,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -210,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,56 +356,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F22"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A4" sqref="A4:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
